--- a/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_male_50_vs_3_DOWN0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_DGRP-551_male_50_vs_3_DOWN0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,196 +38,247 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
+    <t xml:space="preserve">mt:lrRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsromega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM4SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstA</t>
+  </si>
+  <si>
     <t xml:space="preserve">mt:CoIII</t>
   </si>
   <si>
-    <t xml:space="preserve">down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsromega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:lrRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM4SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atpalpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unc-13</t>
+    <t xml:space="preserve">Dop2R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gad1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nplp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ND4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpcp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-2mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nckx30C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32432</t>
   </si>
   <si>
     <t xml:space="preserve">Cyt-c-p</t>
   </si>
   <si>
-    <t xml:space="preserve">mt:ND5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaMKII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dop2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mpcp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrv3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vha16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">para</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG32000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syt1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RpL15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vha13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nckx30C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG6329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNASEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-3-3zeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:Cyt-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mt:ND4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rdl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sap47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DnaJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nSyb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp70Bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ggamma30A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bru3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPsynG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jdp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG7630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COX8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sesB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ddc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR31451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gad1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA-2</t>
+    <t xml:space="preserve">Rab3-GEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG33700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:srRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beat-Ib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca-alpha1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">larp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyrk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR44922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cda5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG44153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABA-B-R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NimC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR32745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mAChR-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rgk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG42784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dop1R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glt</t>
   </si>
 </sst>
 </file>
@@ -590,22 +641,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6683757754326</v>
+        <v>24141.8235341687</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.66068496269512</v>
+        <v>-2.85272217166297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.043100808174586</v>
+        <v>0.343704279062879</v>
       </c>
       <c r="E2" t="n">
-        <v>-38.5302511258787</v>
+        <v>-8.29993207952199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.000000000000000104170932286975</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.00000000000021146699254256</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -616,22 +667,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>24.290026758207</v>
+        <v>23969.482774551</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.60864361411265</v>
+        <v>-2.17002232059082</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0462527851265386</v>
+        <v>0.333735349547645</v>
       </c>
       <c r="E3" t="n">
-        <v>-56.3997088386334</v>
+        <v>-6.50222496218075</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.0000000000791406289747893</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0000000562300930825663</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -642,22 +693,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>24.44202477611</v>
+        <v>227.350208813337</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.20177606962285</v>
+        <v>-4.88493454720445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0449999660519896</v>
+        <v>0.824738721984607</v>
       </c>
       <c r="E4" t="n">
-        <v>-71.1506330010062</v>
+        <v>-5.92300860501567</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.00000000316104296524618</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.00000122226994656186</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -668,22 +719,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>3.16649031369137</v>
+        <v>1494.77997375117</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.44364774646357</v>
+        <v>-1.75709305983552</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0396842040328077</v>
+        <v>0.39400563862461</v>
       </c>
       <c r="E5" t="n">
-        <v>-36.3783974417147</v>
+        <v>-4.45956323358508</v>
       </c>
       <c r="F5" t="n">
-        <v>9.34887547608233e-290</v>
+        <v>0.00000821268413907498</v>
       </c>
       <c r="G5" t="n">
-        <v>9.8686729525525e-287</v>
+        <v>0.00128244221556325</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -694,22 +745,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>11.8902338066953</v>
+        <v>404.286586626443</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.30666968116754</v>
+        <v>-2.01007095926766</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0385137578856964</v>
+        <v>0.456239839992387</v>
       </c>
       <c r="E6" t="n">
-        <v>-33.9273483788717</v>
+        <v>-4.40573308832741</v>
       </c>
       <c r="F6" t="n">
-        <v>2.63288384202682e-252</v>
+        <v>0.0000105426716232208</v>
       </c>
       <c r="G6" t="n">
-        <v>2.31606015303626e-249</v>
+        <v>0.00152868738536701</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -720,22 +771,22 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>4.77786028327228</v>
+        <v>2164.67586197509</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.68266103852606</v>
+        <v>-1.69238676733492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0510122169789029</v>
+        <v>0.385710785791283</v>
       </c>
       <c r="E7" t="n">
-        <v>-32.9854520775279</v>
+        <v>-4.38770921031674</v>
       </c>
       <c r="F7" t="n">
-        <v>1.31318147636371e-238</v>
+        <v>0.0000114550787660415</v>
       </c>
       <c r="G7" t="n">
-        <v>9.90138833178238e-236</v>
+        <v>0.00163184630842556</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -746,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>4.63568625833681</v>
+        <v>278.771522919708</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.25441011042524</v>
+        <v>-1.96464241770075</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0383345758631293</v>
+        <v>0.501847634771225</v>
       </c>
       <c r="E8" t="n">
-        <v>-32.7226813439651</v>
+        <v>-3.91481852573911</v>
       </c>
       <c r="F8" t="n">
-        <v>7.43180037936859e-235</v>
+        <v>0.0000904722291384453</v>
       </c>
       <c r="G8" t="n">
-        <v>4.90313030028843e-232</v>
+        <v>0.0091829312575522</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -772,22 +823,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>4.2209474280793</v>
+        <v>1241.19057771782</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.25053000868458</v>
+        <v>-1.43683520154722</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0695228472507725</v>
+        <v>0.389262809340102</v>
       </c>
       <c r="E9" t="n">
-        <v>-32.3710851566076</v>
+        <v>-3.69116999382246</v>
       </c>
       <c r="F9" t="n">
-        <v>7.00753011623664e-230</v>
+        <v>0.000223224880263119</v>
       </c>
       <c r="G9" t="n">
-        <v>4.10952710594411e-227</v>
+        <v>0.0192828300823035</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -798,22 +849,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>6.23376605162782</v>
+        <v>9644.53551779286</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.09203356726524</v>
+        <v>-1.24145671577783</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0368748469378073</v>
+        <v>0.337873123134374</v>
       </c>
       <c r="E10" t="n">
-        <v>-29.6145925461616</v>
+        <v>-3.67432811542128</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000096956907956348</v>
+        <v>0.000238476117663996</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000511738560193605</v>
+        <v>0.020171104952413</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -824,22 +875,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>5.2016607908302</v>
+        <v>10447.2545092975</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.32574888274503</v>
+        <v>-1.39090905905654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0448858626452732</v>
+        <v>0.39408597752573</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.5360009725609</v>
+        <v>-3.52945585069881</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000993552637413143</v>
+        <v>0.000416415177245105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000476724620024234</v>
+        <v>0.0328280702837889</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -850,22 +901,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>3.8079482340985</v>
+        <v>233.813127981204</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.26476518254349</v>
+        <v>-2.07086896245012</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0429808835154341</v>
+        <v>0.605772709667767</v>
       </c>
       <c r="E12" t="n">
-        <v>-29.4262257798707</v>
+        <v>-3.41855770225417</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000253693493426488</v>
+        <v>0.000629539679654217</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011158285485875</v>
+        <v>0.0452377185733827</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -876,22 +927,22 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>3.95182815761413</v>
+        <v>2791.57454428188</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.09931508628609</v>
+        <v>-1.17452072785458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0387372343867266</v>
+        <v>0.35295523573841</v>
       </c>
       <c r="E13" t="n">
-        <v>-28.3787705469953</v>
+        <v>-3.32767617229814</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000036972230844282</v>
+        <v>0.000875735979952655</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000139385310282943</v>
+        <v>0.059258134643463</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -902,22 +953,22 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>2.4927936111016</v>
+        <v>1205.15016037425</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.26566173904699</v>
+        <v>-1.41369982786218</v>
       </c>
       <c r="D14" t="n">
-        <v>0.044947956066085</v>
+        <v>0.425550993998783</v>
       </c>
       <c r="E14" t="n">
-        <v>-28.1583824898767</v>
+        <v>-3.32204564857913</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000189204880508469</v>
+        <v>0.000893600732352947</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000665748906215801</v>
+        <v>0.0596661658450775</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -928,22 +979,22 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>11.6090311944212</v>
+        <v>1421.34184014617</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.83077035702757</v>
+        <v>-1.2262886247275</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0654561105527203</v>
+        <v>0.372319856285089</v>
       </c>
       <c r="E15" t="n">
-        <v>-27.9694338934639</v>
+        <v>-3.29364282894577</v>
       </c>
       <c r="F15" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000382608456956959</v>
+        <v>0.00098898081098034</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126212964738677</v>
+        <v>0.0642441934812829</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -954,22 +1005,22 @@
         <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>3.12554395093073</v>
+        <v>921.01038366806</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.90573261370499</v>
+        <v>-1.26846082240078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0686842227495074</v>
+        <v>0.38980365991942</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.74629365255</v>
+        <v>-3.25410187955391</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000193148013028783</v>
+        <v>0.00113751477173614</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000599667772215246</v>
+        <v>0.0721610933320111</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -980,22 +1031,22 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>3.4784587370237</v>
+        <v>27.9856737343607</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.18158867358694</v>
+        <v>-8.14011309964416</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0435909492484096</v>
+        <v>2.52331781079219</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.106284537496</v>
+        <v>-3.22595634399639</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000830236978170576</v>
+        <v>0.00125552506043813</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000230631093199174</v>
+        <v>0.0778233854256304</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1006,22 +1057,22 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>9.27671956961878</v>
+        <v>567.494031877931</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.14794498613571</v>
+        <v>-1.37533446711861</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0426105116090063</v>
+        <v>0.43251052364774</v>
       </c>
       <c r="E18" t="n">
-        <v>-26.9404178168347</v>
+        <v>-3.17988671239538</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000073873322202952</v>
+        <v>0.00147332638842894</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000185668283136753</v>
+        <v>0.086691378797413</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -1032,22 +1083,22 @@
         <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>5.0353216679663</v>
+        <v>15713.0970450133</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.20938324262228</v>
+        <v>-1.12320272624675</v>
       </c>
       <c r="D19" t="n">
-        <v>0.044888703056448</v>
+        <v>0.355126655058904</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.9418174345887</v>
+        <v>-3.1628229259796</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000711359396078618</v>
+        <v>0.00156247337833602</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000185668283136753</v>
+        <v>0.0898367069154654</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -1058,22 +1109,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>4.70442262773787</v>
+        <v>1785.56809775132</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.20537294928264</v>
+        <v>-1.15662962061993</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0449440599385987</v>
+        <v>0.367886715252826</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.8194050766527</v>
+        <v>-3.14398311400031</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000191917965791879</v>
+        <v>0.00166665056624903</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000460428647022516</v>
+        <v>0.0939805735968202</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1084,22 +1135,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>15.92155701341</v>
+        <v>2439.70695321642</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.29927506789263</v>
+        <v>-1.10059514302442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0486932236052609</v>
+        <v>0.372824449542072</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.6828723114617</v>
+        <v>-2.95204658486385</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000743954235165719</v>
+        <v>0.00315675302252789</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000170721324052377</v>
+        <v>0.153238564413723</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -1110,22 +1161,22 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>6.60559754208936</v>
+        <v>4482.61203141648</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.10281414866055</v>
+        <v>-1.00618578708792</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0414671161100309</v>
+        <v>0.343054980318742</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.5949082577697</v>
+        <v>-2.93301611932014</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000777397697192034</v>
+        <v>0.00335686463100432</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000170962710240815</v>
+        <v>0.159401993004416</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1136,22 +1187,22 @@
         <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>4.72539731829305</v>
+        <v>193.366890073926</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.11880807740697</v>
+        <v>-1.65267421815692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0425828052326991</v>
+        <v>0.56720065071316</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.2737053440491</v>
+        <v>-2.91373822663807</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000383179923437286</v>
+        <v>0.00357129234996118</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000808969454360799</v>
+        <v>0.167852872647358</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -1162,22 +1213,22 @@
         <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>2.22271051892848</v>
+        <v>139.849136172941</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.02909357262777</v>
+        <v>-1.95406214597136</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0394101404969881</v>
+        <v>0.673861049400556</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.1124055801429</v>
+        <v>-2.89979981438254</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000263593577447716</v>
+        <v>0.0037340105154179</v>
       </c>
       <c r="G24" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000535094962218864</v>
+        <v>0.172273666961326</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -1188,22 +1239,22 @@
         <v>32</v>
       </c>
       <c r="B25" t="n">
-        <v>6.86550213436849</v>
+        <v>501.591322756355</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.04318333192863</v>
+        <v>-1.28895072814758</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0400986823072644</v>
+        <v>0.445732848182946</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.0154018013617</v>
+        <v>-2.89175620195384</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000331567492514639</v>
+        <v>0.00383095097674469</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000648153046478617</v>
+        <v>0.173783921403167</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1214,22 +1265,22 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>5.68370140134887</v>
+        <v>2195.48033880363</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.09703830504133</v>
+        <v>-1.02762596900991</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0425779752416674</v>
+        <v>0.358910917220011</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.7653939346499</v>
+        <v>-2.86317835347422</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000216698527760869</v>
+        <v>0.00419414404061842</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000381244943173956</v>
+        <v>0.18815718016476</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1240,22 +1291,22 @@
         <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>8.42374894986275</v>
+        <v>1307.22942659264</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.04259386265856</v>
+        <v>-1.16915929321539</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0407771675724019</v>
+        <v>0.415104464904526</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.5680795093819</v>
+        <v>-2.81654232142334</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000345647255108046</v>
+        <v>0.00485436468478392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000570101941393834</v>
+        <v>0.206594690148507</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -1266,22 +1317,22 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>5.16911033368812</v>
+        <v>1278.91202392934</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.07107323113791</v>
+        <v>-1.26553208718163</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04202875949204</v>
+        <v>0.449643849867452</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.48429323356</v>
+        <v>-2.81452106495994</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000294373723969594</v>
+        <v>0.0048849975995706</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000470819550033793</v>
+        <v>0.206594690148507</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1292,22 +1343,22 @@
         <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>3.20152403165824</v>
+        <v>447.073359794725</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.07712098906459</v>
+        <v>-1.28132472265834</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0423428100766975</v>
+        <v>0.454735535778818</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.4381083143407</v>
+        <v>-2.8177360726028</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000955831852671368</v>
+        <v>0.00483635466403329</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000148378838776455</v>
+        <v>0.206594690148507</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1318,22 +1369,22 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>5.35942452117171</v>
+        <v>4118.03065141932</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.13599187186415</v>
+        <v>-1.04731485733746</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0450992975623232</v>
+        <v>0.373680609064429</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.1886821583932</v>
+        <v>-2.80270057351808</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000532974022419852</v>
+        <v>0.00506766942686821</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000803724825809137</v>
+        <v>0.212110699722525</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -1344,22 +1395,22 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>5.62230237943938</v>
+        <v>332.763294567107</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.07997412704234</v>
+        <v>-1.4155309865378</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0430689015595005</v>
+        <v>0.507211644813157</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.0754973527788</v>
+        <v>-2.79080932193354</v>
       </c>
       <c r="F31" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000920528296838113</v>
+        <v>0.00525764356887791</v>
       </c>
       <c r="G31" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000134959676408654</v>
+        <v>0.213460328896443</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -1370,22 +1421,22 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>10.9813722640138</v>
+        <v>15.9651416418093</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.07694670377402</v>
+        <v>-7.31982450793191</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0435313567470212</v>
+        <v>2.63711709531688</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.7395621053715</v>
+        <v>-2.77569187994375</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000040156479156786</v>
+        <v>0.00550843844774125</v>
       </c>
       <c r="G32" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000572826748620315</v>
+        <v>0.22033753790965</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -1396,22 +1447,22 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>19.880680862687</v>
+        <v>78.4681437352505</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.0505358120002</v>
+        <v>-2.83786202082896</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0425521935769229</v>
+        <v>1.0247007392744</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.6881705428679</v>
+        <v>-2.76945444856268</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000143300054659967</v>
+        <v>0.00561502552213411</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000199036233814555</v>
+        <v>0.222787175547253</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -1422,22 +1473,22 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>2.80206811153784</v>
+        <v>469.79968990245</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.08087869076067</v>
+        <v>-1.30726209108515</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0439426481529281</v>
+        <v>0.478623063134358</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.5974864099911</v>
+        <v>-2.7312977409076</v>
       </c>
       <c r="F34" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000134388798272376</v>
+        <v>0.00630854500313437</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000173000994458927</v>
+        <v>0.243930406787862</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -1448,22 +1499,22 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>6.78778870927266</v>
+        <v>21.1702959420424</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.03960529018116</v>
+        <v>-5.27023597344535</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0422965937664417</v>
+        <v>1.94883295410997</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.5789364486836</v>
+        <v>-2.70430359992155</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000212214891149238</v>
+        <v>0.00684477191527695</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000266683379877542</v>
+        <v>0.253842086643327</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -1474,22 +1525,22 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>10.1016784865816</v>
+        <v>183.116737834638</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.06085814926696</v>
+        <v>-1.52780016156425</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0432821207205103</v>
+        <v>0.565788126458959</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.510308912942</v>
+        <v>-2.70030438978305</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000114690604030431</v>
+        <v>0.00692760616022788</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000014077604838898</v>
+        <v>0.254534669778509</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1500,22 +1551,22 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>1.95819446374774</v>
+        <v>613.308126277433</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.21353388417723</v>
+        <v>-1.11102607975724</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0496954490812523</v>
+        <v>0.416876150301427</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.419416799979</v>
+        <v>-2.66512267241458</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000106380149106814</v>
+        <v>0.0076960243401167</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127607824314946</v>
+        <v>0.273068893125099</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -1526,22 +1577,22 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>5.47243239637187</v>
+        <v>595.069960150064</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.09359329855809</v>
+        <v>-1.1348449249706</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0448148303853922</v>
+        <v>0.430335988079274</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.4024866133279</v>
+        <v>-2.63711368885455</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160933655120705</v>
+        <v>0.0083614803012388</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000188757295939351</v>
+        <v>0.293918701498091</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
@@ -1552,22 +1603,22 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>7.30116879626061</v>
+        <v>1238.25527554392</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.05819246415277</v>
+        <v>-1.14843399644507</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0433801440568428</v>
+        <v>0.435916280162998</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.3934751061725</v>
+        <v>-2.63452880451185</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000200581952342896</v>
+        <v>0.0084254154663771</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000230145987927349</v>
+        <v>0.294889541323199</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -1578,22 +1629,22 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>5.19746174499837</v>
+        <v>623.392822086785</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.11078634084566</v>
+        <v>-1.1242153108318</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0466258381799355</v>
+        <v>0.430847353587152</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.8234074540168</v>
+        <v>-2.60931232714277</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000191085551933842</v>
+        <v>0.00907243952313124</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000210114488147254</v>
+        <v>0.310836324589982</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
@@ -1604,22 +1655,22 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>2.22205058945459</v>
+        <v>435.733297982868</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.37527602054327</v>
+        <v>-1.14526259844075</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0578544950201322</v>
+        <v>0.451856205010032</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.7712907193244</v>
+        <v>-2.53457313575083</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000661919355504181</v>
+        <v>0.011258442299904</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000712981705785932</v>
+        <v>0.362772029663575</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
@@ -1630,22 +1681,22 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>9.42711685746511</v>
+        <v>343.476585839073</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.20672359010693</v>
+        <v>-1.23732520329508</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0507712623583041</v>
+        <v>0.487923134243809</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.7678468892661</v>
+        <v>-2.53590190023007</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000718486172343004</v>
+        <v>0.0112158148147428</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000758434003525275</v>
+        <v>0.362772029663575</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
@@ -1656,22 +1707,22 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>5.09659231193379</v>
+        <v>227.876419005862</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.06098067920781</v>
+        <v>-1.32628679698046</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0448106005315874</v>
+        <v>0.52631618413713</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.6770020178576</v>
+        <v>-2.51994302465702</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000622309759120492</v>
+        <v>0.011737383136464</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000619726586535463</v>
+        <v>0.375226579008219</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
@@ -1682,22 +1733,22 @@
         <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>5.433232495941</v>
+        <v>476.238640230029</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.09591792790643</v>
+        <v>-1.08346616649231</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0463124683128492</v>
+        <v>0.434371064762937</v>
       </c>
       <c r="E44" t="n">
-        <v>-23.6635611927075</v>
+        <v>-2.49433319662677</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000855898604523838</v>
+        <v>0.0126194023114642</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000836561636051262</v>
+        <v>0.398714189762994</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
@@ -1708,22 +1759,22 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>3.14368669903617</v>
+        <v>161.895551717596</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.0480813761035</v>
+        <v>-1.44179865778527</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0448115815824405</v>
+        <v>0.588517955441998</v>
       </c>
       <c r="E45" t="n">
-        <v>-23.3886272051194</v>
+        <v>-2.4498804912459</v>
       </c>
       <c r="F45" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000557891304167729</v>
+        <v>0.014290363639759</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000516587772525838</v>
+        <v>0.436232153213695</v>
       </c>
       <c r="H45" t="s">
         <v>9</v>
@@ -1734,22 +1785,22 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>5.73680754674279</v>
+        <v>618.419497911289</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.21479204067013</v>
+        <v>-1.11686147090246</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0522541371968019</v>
+        <v>0.461544838005029</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.2477676570359</v>
+        <v>-2.41983308865496</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149845306326625</v>
+        <v>0.0155276325549095</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000136359228757229</v>
+        <v>0.458488641257691</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
@@ -1760,22 +1811,22 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>4.08555141705365</v>
+        <v>324.520426523967</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.03198432615351</v>
+        <v>-1.15376398041858</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0444499036454562</v>
+        <v>0.482094241739554</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.2167955724916</v>
+        <v>-2.39323327375872</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000308118335428875</v>
+        <v>0.0167006191893253</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000275635351592136</v>
+        <v>0.482594405043849</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
@@ -1786,22 +1837,22 @@
         <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>4.67982840066104</v>
+        <v>204.162605082284</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.02140843433808</v>
+        <v>-1.30439639217337</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0449372694410725</v>
+        <v>0.546813311285691</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.7296506227972</v>
+        <v>-2.38545105843605</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000228143344102989</v>
+        <v>0.0170581919469494</v>
       </c>
       <c r="G48" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000179722473160534</v>
+        <v>0.485577930748252</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -1812,22 +1863,22 @@
         <v>56</v>
       </c>
       <c r="B49" t="n">
-        <v>5.52153449504807</v>
+        <v>80.5763207480265</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.29822082866658</v>
+        <v>-1.90619112738007</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0572022968623435</v>
+        <v>0.80658031172778</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.6952570067375</v>
+        <v>-2.36329984709993</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000499019933431416</v>
+        <v>0.0181130078441492</v>
       </c>
       <c r="G49" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000387327530683973</v>
+        <v>0.503690492104422</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -1838,22 +1889,22 @@
         <v>57</v>
       </c>
       <c r="B50" t="n">
-        <v>2.31035676494525</v>
+        <v>392.908512321942</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.00626454273798</v>
+        <v>-1.06567956694961</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0444165989252881</v>
+        <v>0.453431965664753</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.6551462085288</v>
+        <v>-2.35025240310809</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000124131749601578</v>
+        <v>0.0187606845303675</v>
       </c>
       <c r="G50" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000935953391995897</v>
+        <v>0.514651210765486</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -1864,22 +1915,22 @@
         <v>58</v>
       </c>
       <c r="B51" t="n">
-        <v>4.09977483848582</v>
+        <v>840.901986790474</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.00380167260925</v>
+        <v>-1.01263689537672</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0446337641690847</v>
+        <v>0.431132709218598</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.4897382350855</v>
+        <v>-2.34878234410018</v>
       </c>
       <c r="F51" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000523072327171651</v>
+        <v>0.0188349132350072</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000383441075390552</v>
+        <v>0.514947796189423</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -1890,22 +1941,22 @@
         <v>59</v>
       </c>
       <c r="B52" t="n">
-        <v>4.7370420577902</v>
+        <v>423.273386637282</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.02115455398326</v>
+        <v>-1.03408994360688</v>
       </c>
       <c r="D52" t="n">
-        <v>0.045404106943307</v>
+        <v>0.445524230145181</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.4903565498669</v>
+        <v>-2.32106330843084</v>
       </c>
       <c r="F52" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000515834735153182</v>
+        <v>0.0202834272938872</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000383441075390552</v>
+        <v>0.541198477949674</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -1916,22 +1967,22 @@
         <v>60</v>
       </c>
       <c r="B53" t="n">
-        <v>4.65590166917323</v>
+        <v>331.567782841523</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.01063004348145</v>
+        <v>-1.1360454720095</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0452709537743419</v>
+        <v>0.490493402107539</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.3240280847416</v>
+        <v>-2.31612793796649</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000215932077568804</v>
+        <v>0.0205512842987952</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000154012095325425</v>
+        <v>0.541198477949674</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -1942,22 +1993,22 @@
         <v>61</v>
       </c>
       <c r="B54" t="n">
-        <v>16.5902140367047</v>
+        <v>1013.38027414365</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.60608214350501</v>
+        <v>-1.02368490386362</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0721410464863436</v>
+        <v>0.444382163835257</v>
       </c>
       <c r="E54" t="n">
-        <v>-22.263083524981</v>
+        <v>-2.30361384225835</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000842486540384956</v>
+        <v>0.0212443301197425</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000577486228591142</v>
+        <v>0.552897309526632</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -1968,22 +2019,22 @@
         <v>62</v>
       </c>
       <c r="B55" t="n">
-        <v>4.18992688011272</v>
+        <v>431.538308908895</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.0062802595456</v>
+        <v>-1.02304966933524</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0455270886759119</v>
+        <v>0.450525768474474</v>
       </c>
       <c r="E55" t="n">
-        <v>-22.1028905825471</v>
+        <v>-2.2707905760849</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000296467581436679</v>
+        <v>0.0231596587154359</v>
       </c>
       <c r="G55" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000195594486852849</v>
+        <v>0.580421076448579</v>
       </c>
       <c r="H55" t="s">
         <v>9</v>
@@ -1994,22 +2045,22 @@
         <v>63</v>
       </c>
       <c r="B56" t="n">
-        <v>3.87889657309489</v>
+        <v>167.632674233516</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.01994758621615</v>
+        <v>-1.30965395805117</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0463452341480025</v>
+        <v>0.580510734158412</v>
       </c>
       <c r="E56" t="n">
-        <v>-22.0076045566835</v>
+        <v>-2.25603745286438</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000243523252067945</v>
+        <v>0.0240682856718132</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000156745820050563</v>
+        <v>0.588371602652137</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -2020,22 +2071,22 @@
         <v>64</v>
       </c>
       <c r="B57" t="n">
-        <v>1.91276631849089</v>
+        <v>388.448914567323</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.19898283226408</v>
+        <v>-1.03818584952453</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0584447125858072</v>
+        <v>0.463391386359221</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.5148212595581</v>
+        <v>-2.24040817349102</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000158751020444088</v>
+        <v>0.0250644361431019</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000768704482480638</v>
+        <v>0.603926473240318</v>
       </c>
       <c r="H57" t="s">
         <v>9</v>
@@ -2046,22 +2097,22 @@
         <v>65</v>
       </c>
       <c r="B58" t="n">
-        <v>12.3656316484897</v>
+        <v>348.024820577611</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.05417921945271</v>
+        <v>-1.02248154456854</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0518252264177453</v>
+        <v>0.469427060340769</v>
       </c>
       <c r="E58" t="n">
-        <v>-20.3410441655447</v>
+        <v>-2.17814785501775</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000557312070009552</v>
+        <v>0.0293950307829882</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000260309124381453</v>
+        <v>0.664565503139491</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -2072,22 +2123,22 @@
         <v>66</v>
       </c>
       <c r="B59" t="n">
-        <v>200.063851502588</v>
+        <v>335.80918746015</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.00285137748034</v>
+        <v>-1.03765947761516</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0494525395271032</v>
+        <v>0.476757707376877</v>
       </c>
       <c r="E59" t="n">
-        <v>-20.2790673051424</v>
+        <v>-2.17649229694547</v>
       </c>
       <c r="F59" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000196828081946134</v>
+        <v>0.0295184690480056</v>
       </c>
       <c r="G59" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000887913347445894</v>
+        <v>0.664565503139491</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
@@ -2098,22 +2149,22 @@
         <v>67</v>
       </c>
       <c r="B60" t="n">
-        <v>11.4458790792833</v>
+        <v>335.379122349567</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.05267881065806</v>
+        <v>-1.11978919136363</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0536241552103926</v>
+        <v>0.51217416911443</v>
       </c>
       <c r="E60" t="n">
-        <v>-19.6306833464865</v>
+        <v>-2.1863445267062</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000845696339668577</v>
+        <v>0.028790408813084</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000335607915847425</v>
+        <v>0.664565503139491</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -2124,22 +2175,22 @@
         <v>68</v>
       </c>
       <c r="B61" t="n">
-        <v>3.33295490571271</v>
+        <v>52.6922108824061</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.02502963023913</v>
+        <v>-2.0467865067675</v>
       </c>
       <c r="D61" t="n">
-        <v>0.054334877686177</v>
+        <v>0.939507070738603</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.8650398029681</v>
+        <v>-2.17857488305904</v>
       </c>
       <c r="F61" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000221104832372906</v>
+        <v>0.0293632637443856</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000810410628655694</v>
+        <v>0.664565503139491</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -2150,22 +2201,22 @@
         <v>69</v>
       </c>
       <c r="B62" t="n">
-        <v>24.0907530514927</v>
+        <v>276.724311619101</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.00914321625747</v>
+        <v>-1.10491238861208</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0563932658232408</v>
+        <v>0.510801854356886</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.894746855423</v>
+        <v>-2.16309392612365</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000129584335296114</v>
+        <v>0.0305339561774821</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000040711078672196</v>
+        <v>0.671979706347682</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -2176,22 +2227,22 @@
         <v>70</v>
       </c>
       <c r="B63" t="n">
-        <v>2.42857490313988</v>
+        <v>291.269639682129</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.01218083494491</v>
+        <v>-1.06244924232489</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0638663915338719</v>
+        <v>0.494584653153319</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.8484112008754</v>
+        <v>-2.14816459740722</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000144180145288469</v>
+        <v>0.0317006820248542</v>
       </c>
       <c r="G63" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000322450341878194</v>
+        <v>0.68896324077551</v>
       </c>
       <c r="H63" t="s">
         <v>9</v>
@@ -2202,24 +2253,466 @@
         <v>71</v>
       </c>
       <c r="B64" t="n">
-        <v>20.3486400482583</v>
+        <v>86.2310195275549</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.02549238610361</v>
+        <v>-1.60340749328338</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0650497391243037</v>
+        <v>0.753423834696987</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.7647424864226</v>
+        <v>-2.12816136076746</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000543935807762724</v>
+        <v>0.0333237072382233</v>
       </c>
       <c r="G64" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000119124198895089</v>
+        <v>0.715842599932204</v>
       </c>
       <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>295.023212136148</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.04177609028289</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.491524734594769</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2.11947846559904</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0340500517674012</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.723483678918958</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>101.666133210889</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.48410919013405</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.701559512252354</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-2.11544304398257</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0343922044412214</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.723483678918958</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>32.8447694564689</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-2.47896906026603</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.17143332627462</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-2.1161845106026</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0343291180610785</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.723483678918958</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>14.8226363430698</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-4.74251899460642</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.25992713239926</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-2.09852739347906</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0358585826470111</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.741781383104231</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>112.827237765583</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.41010731537549</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.673344265750725</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-2.09418478347525</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0362435227400306</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.745056720630503</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>225.348096598557</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.09434717243582</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.527141145439532</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-2.076004087147</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0378935729844853</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.771167450210577</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>395.840292096086</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.00257568126155</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.486284485313789</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-2.0617060826331</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.039235727123071</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.786652109232929</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>49.6159929729265</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.03296875624447</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.990068982503548</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-2.05336071745605</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0400376061677118</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.792689055429165</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>127.464833779682</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.33453053847899</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.651545767592463</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-2.04825294685013</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0405352208803535</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.798898042593375</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>75.9579768172141</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.71677751353099</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.840107712750975</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2.04352071463469</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.041000918926773</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.806119761950113</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>212.55076234457</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.33195036756351</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.656417208508414</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.02912164748106</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0424459015229019</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.820325413546841</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>133.474764299901</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.34572212972101</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.66389431720678</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.02701257540945</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0426611266263775</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.820325413546841</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>268.991253032852</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.00762411609511</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.499584189247673</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.01692555085158</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0437032832002704</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.831078828070715</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>230.053999144052</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.05377529780306</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.524249093261264</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-2.01006603797386</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0444241999655646</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.838274414435162</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>260.307797191722</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.0128361365563</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.506303068602422</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-2.00045427208667</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0454512329967483</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.842611899391773</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>207.58852737827</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.07647985958124</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.541781350842058</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.98692675173874</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0469305145829342</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.854429996442658</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>13.7428845761462</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-4.63105718743439</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.36019466378981</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1.96215052024489</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0497449626153054</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.87559217686802</v>
+      </c>
+      <c r="H81" t="s">
         <v>9</v>
       </c>
     </row>
